--- a/Organizacional/03. Desarrollo/PTL-PlanPruebas.xlsx
+++ b/Organizacional/03. Desarrollo/PTL-PlanPruebas.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qualtop\Desktop\ASosa\Qualtop\Proyectos\Bisoltec\ORIGINALES\03. Desarrollo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="PlanPruebas" sheetId="16" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -30,9 +25,6 @@
     <t>Nombre del Proyecto:</t>
   </si>
   <si>
-    <t>Tipo Prueba</t>
-  </si>
-  <si>
     <t>Descripción de la Prueba</t>
   </si>
   <si>
@@ -60,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,11 +176,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,17 +217,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -246,13 +250,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1119187</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>3610695</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>15264</xdr:rowOff>
@@ -328,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,10 +364,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +398,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,117 +573,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="11.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.5703125" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="8"/>
+    <col min="3" max="3" width="24.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="8" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.5703125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="67.5" customHeight="1"/>
+    <row r="2" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="3" spans="2:11" ht="19.5" customHeight="1">
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="2:12" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="5" spans="2:11" s="10" customFormat="1" ht="39" customHeight="1">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -691,10 +682,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -704,49 +694,45 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -756,10 +742,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -769,49 +754,45 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -821,10 +802,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -834,23 +814,15 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="1">
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C11 C14 C17 C20">
-      <formula1>"Sistema, Integración"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K8 K11:K13 K16:K18">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J8 J11:J13 J16:J18">
       <formula1>"Aprobado,Rechazado,En Proceso"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Unitarias,Sistema, Integración"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
